--- a/medicine/Enfance/Langelot_chez_les_Pa-pous/Langelot_chez_les_Pa-pous.xlsx
+++ b/medicine/Enfance/Langelot_chez_les_Pa-pous/Langelot_chez_les_Pa-pous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot chez les Pa-pous est le douzième roman de la série Langelot, écrite par le Lieutenant X. Le roman a été édité pour la première fois en 1969, dans la Bibliothèque verte, où il porte le numéro 403.
@@ -512,7 +524,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agents secrets
 Langelot : orphelin, agent du Service National d'Information Fonctionnelle (SNIF), blond, 1,68 m, mince, « traits menus mais durs »
@@ -561,7 +575,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre d'une banale mission de surveillance, Langelot est placé sous les ordres du capitaine Mousteyrac. Ce dernier, étrangement, semble se passionner pour les programmes de Radio Équipe, une radio pirate logée dans un navire croisant dans les eaux internationales. Ses chanteurs, connus par leurs prénoms ou par des pseudonymes, paraissent tous assez jeunes et sympathiques.
 Ce soir là, Mousteyrac et Langelot sont chargés d'empêcher une équipe d'espions industriels de dérober la moto volante (appelée « la Bretonne ») et les plans afférents de l'ingénieur Pernancoet, un ancien camarade du professeur Roche-Verger.
@@ -600,12 +616,14 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans cet épisode la « musique Pa-pou » (c'est-à-dire la musique Yéyé), ainsi que les émissions de radio-crochet à succès en prennent pour leur grade avec un étalage de paroles navrantes ânonnées par des jeunes chanteurs pris en otage par leur compagnie aux pratiques de gangsters.
 C'est dans cet épisode qu'apparaît pour la première fois le SPHINX, défini comme étant « un groupement très puissant, une organisation d'espionnage plus dangereuse que toutes celles auxquelles nous nous sommes heurtés jusqu'à présent » (seconde partie, chapitre 11). Le commodore Burma, agent du SPHINX, fait aussi sa première apparition dans le roman.
 Greg, qui est emporté par le commando du SPHINX, fera une courte apparition dans un roman de la même série publié l'année suivante et intitulé Langelot et les Cosmonautes.
-On retrouvera aussi Julio, devenu chanteur à succès, dans le roman Langelot garde du corps, dans lequel Langelot devra persuader Julio de l'embaucher provisoirement en tant que garde du corps et de subir une tentative d'assassinat fictive au cours d'une tournée musicale au Brésil. Le chanteur sera cité aussi incidemment dans le dernier roman de la série, Langelot donne l'assaut (1985) où l'auteur indique que Julio est connu pour sa chanson Sys-tole Dias-tole[1].</t>
+On retrouvera aussi Julio, devenu chanteur à succès, dans le roman Langelot garde du corps, dans lequel Langelot devra persuader Julio de l'embaucher provisoirement en tant que garde du corps et de subir une tentative d'assassinat fictive au cours d'une tournée musicale au Brésil. Le chanteur sera cité aussi incidemment dans le dernier roman de la série, Langelot donne l'assaut (1985) où l'auteur indique que Julio est connu pour sa chanson Sys-tole Dias-tole.</t>
         </is>
       </c>
     </row>
@@ -633,7 +651,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1969 - Hachette, Bibliothèque verte (français, version originale), illustré par Maurice Paulin.
 1974 - Hachette, Bibliothèque verte, illustré par Maurice Paulin.</t>
